--- a/DataFiles/RemsDemo_Experiments.xlsx
+++ b/DataFiles/RemsDemo_Experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="660" windowWidth="15480" windowHeight="4755" tabRatio="669" activeTab="4"/>
+    <workbookView xWindow="270" yWindow="660" windowWidth="15480" windowHeight="4755" tabRatio="669" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="17" r:id="rId1"/>
@@ -709,9 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4066,7 +4064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
